--- a/charts_quandl/BOM508869_close.xlsx
+++ b/charts_quandl/BOM508869_close.xlsx
@@ -19,10 +19,10 @@
     <t>Exchange : BSE ||  Scrip : BOM508869</t>
   </si>
   <si>
-    <t>Type : close || Date : 2019-08-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Box : 16 || Close : 1522.1</t>
+    <t>Type : close || Date : 2019-08-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Box : 16 || Close : 1517.9</t>
   </si>
   <si>
     <t>Reversal : 3</t>

--- a/charts_quandl/BOM508869_close.xlsx
+++ b/charts_quandl/BOM508869_close.xlsx
@@ -19,10 +19,10 @@
     <t>Exchange : BSE ||  Scrip : BOM508869</t>
   </si>
   <si>
-    <t>Type : close || Date : 2019-08-29 00:00:00</t>
-  </si>
-  <si>
-    <t>Box : 16 || Close : 1517.9</t>
+    <t>Type : close || Date : 2019-08-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Box : 16 || Close : 1508.75</t>
   </si>
   <si>
     <t>Reversal : 3</t>
